--- a/Exoplanets/GJ9827d/Parâmetros.xlsx
+++ b/Exoplanets/GJ9827d/Parâmetros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\Exoplanets\GJ9827d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6710527F-BE28-4F15-8B0F-25E47517EE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E985ACF7-8243-42B1-B918-BAE7DC4C3080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -170,7 +170,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -435,7 +435,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -763,7 +763,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,13 +905,13 @@
         <v>0.60599999999999998</v>
       </c>
       <c r="P2" s="20">
-        <v>0.185</v>
+        <v>0.182</v>
       </c>
       <c r="Q2" s="20">
-        <v>1.6E-2</v>
+        <v>7.3899999999999999E-3</v>
       </c>
       <c r="R2" s="20">
-        <v>6.2014699999999996</v>
+        <v>6.2014189999999996</v>
       </c>
       <c r="S2" s="24">
         <v>87.442999999999998</v>

--- a/Exoplanets/GJ9827d/Parâmetros.xlsx
+++ b/Exoplanets/GJ9827d/Parâmetros.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\Exoplanets\GJ9827d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E985ACF7-8243-42B1-B918-BAE7DC4C3080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82D6D16-5D9C-49F0-9E84-316C3C13D3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -763,7 +763,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="18">
-        <v>0.2</v>
+        <v>0.28284271249999998</v>
       </c>
       <c r="M2" s="19">
         <v>2</v>

--- a/Exoplanets/GJ9827d/Parâmetros.xlsx
+++ b/Exoplanets/GJ9827d/Parâmetros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\Exoplanets\GJ9827d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82D6D16-5D9C-49F0-9E84-316C3C13D3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A156AE-3DCB-462B-9081-6459335686C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="13545" yWindow="1845" windowWidth="19155" windowHeight="13575" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -762,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,7 +875,7 @@
         <v>2050</v>
       </c>
       <c r="F2" s="8">
-        <v>0.60199999999999998</v>
+        <v>0.59940000000000004</v>
       </c>
       <c r="G2" s="8">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0.60599999999999998</v>
       </c>
       <c r="P2" s="20">
-        <v>0.182</v>
+        <v>0.187</v>
       </c>
       <c r="Q2" s="20">
         <v>7.3899999999999999E-3</v>

--- a/Exoplanets/GJ9827d/Parâmetros.xlsx
+++ b/Exoplanets/GJ9827d/Parâmetros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\Exoplanets\GJ9827d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A156AE-3DCB-462B-9081-6459335686C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07B4BF7-0A80-457A-8FE9-F6B8D28A8043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13545" yWindow="1845" windowWidth="19155" windowHeight="13575" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="19245" yWindow="2025" windowWidth="19155" windowHeight="13575" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -763,7 +763,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="18">
         <v>0.1</v>
